--- a/FA_Login_21C.xlsx
+++ b/FA_Login_21C.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UIAF_Selenium_IGA-master\venv\Selenium\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RajDivekar\Documents\Work Folder\Finance_step\Fixed Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F80FBB3-C5E6-4C36-A692-F67D0464BEA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7130D3F-9136-4517-9211-1D47C525DA9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="831" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17983,9 +17983,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
@@ -18335,7 +18335,6 @@
       <c r="M10" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M9" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="32" type="noConversion"/>
   <conditionalFormatting sqref="H8:H9">
     <cfRule type="duplicateValues" dxfId="71" priority="68"/>
